--- a/ep/ep/export/flourish/Romania_group_group.xlsx
+++ b/ep/ep/export/flourish/Romania_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>name1</t>
   </si>
@@ -80,13 +80,31 @@
   </si>
   <si>
     <t>S&amp;D</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +119,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,16 +160,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,6 +534,9 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M2">
         <v>0.759</v>
       </c>
@@ -529,6 +563,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E3">
         <v>0.538</v>
       </c>
@@ -555,6 +592,9 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E4">
         <v>0.606</v>
       </c>
@@ -593,6 +633,9 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E5">
         <v>0.727</v>
       </c>
@@ -643,6 +686,9 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E6">
         <v>0.763</v>
       </c>
@@ -693,6 +739,9 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="M7">
         <v>0.759</v>
       </c>
@@ -719,6 +768,9 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M8">
         <v>0.466</v>
       </c>
@@ -742,6 +794,9 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="P9">
         <v>0.671</v>
       </c>
@@ -759,6 +814,9 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M10">
         <v>0.8149999999999999</v>
       </c>
@@ -785,6 +843,9 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M11">
         <v>0.703</v>
       </c>
@@ -811,6 +872,9 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E12">
         <v>0.538</v>
       </c>
@@ -837,6 +901,9 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M13">
         <v>0.466</v>
       </c>
@@ -860,6 +927,9 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E14">
         <v>0.597</v>
       </c>
@@ -886,6 +956,9 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E15">
         <v>0.548</v>
       </c>
@@ -912,6 +985,9 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E16">
         <v>0.606</v>
       </c>
@@ -950,6 +1026,9 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P17">
         <v>0.671</v>
       </c>
@@ -967,6 +1046,9 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E18">
         <v>0.589</v>
       </c>
@@ -1005,6 +1087,9 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E19">
         <v>0.631</v>
       </c>
@@ -1043,6 +1128,9 @@
       <c r="C20" t="s">
         <v>16</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E20">
         <v>0.727</v>
       </c>
@@ -1093,6 +1181,9 @@
       <c r="C21" t="s">
         <v>17</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M21">
         <v>0.8149999999999999</v>
       </c>
@@ -1119,6 +1210,9 @@
       <c r="C22" t="s">
         <v>18</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E22">
         <v>0.597</v>
       </c>
@@ -1145,6 +1239,9 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E23">
         <v>0.589</v>
       </c>
@@ -1183,6 +1280,9 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E24">
         <v>0.649</v>
       </c>
@@ -1233,6 +1333,9 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E25">
         <v>0.763</v>
       </c>
@@ -1283,6 +1386,9 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M26">
         <v>0.703</v>
       </c>
@@ -1309,6 +1415,9 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E27">
         <v>0.548</v>
       </c>
@@ -1335,6 +1444,9 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E28">
         <v>0.631</v>
       </c>
@@ -1373,6 +1485,9 @@
       <c r="C29" t="s">
         <v>20</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E29">
         <v>0.649</v>
       </c>
@@ -1414,6 +1529,36 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Romania_group_group.xlsx
+++ b/ep/ep/export/flourish/Romania_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
   <si>
     <t>name1</t>
   </si>
@@ -70,28 +70,25 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>S&amp;D</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
-  </si>
-  <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
@@ -563,9 +560,6 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
         <v>0.538</v>
       </c>
@@ -593,34 +587,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>0.606</v>
+        <v>0.727</v>
+      </c>
+      <c r="F4">
+        <v>0.801</v>
       </c>
       <c r="G4">
-        <v>0.623</v>
+        <v>0.722</v>
       </c>
       <c r="H4">
-        <v>0.6919999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="I4">
-        <v>0.783</v>
+        <v>0.844</v>
       </c>
       <c r="J4">
-        <v>0.74</v>
+        <v>0.791</v>
       </c>
       <c r="K4">
-        <v>0.775</v>
+        <v>0.786</v>
       </c>
       <c r="L4">
-        <v>0.78</v>
+        <v>0.821</v>
+      </c>
+      <c r="M4">
+        <v>0.826</v>
+      </c>
+      <c r="N4">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.842</v>
       </c>
       <c r="P4">
-        <v>0.649</v>
+        <v>0.846</v>
       </c>
       <c r="Q4">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -634,46 +640,34 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0.727</v>
-      </c>
-      <c r="F5">
-        <v>0.801</v>
+        <v>0.606</v>
       </c>
       <c r="G5">
-        <v>0.722</v>
+        <v>0.623</v>
       </c>
       <c r="H5">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="I5">
         <v>0.783</v>
       </c>
-      <c r="I5">
-        <v>0.844</v>
-      </c>
       <c r="J5">
-        <v>0.791</v>
+        <v>0.74</v>
       </c>
       <c r="K5">
-        <v>0.786</v>
+        <v>0.775</v>
       </c>
       <c r="L5">
-        <v>0.821</v>
-      </c>
-      <c r="M5">
-        <v>0.826</v>
-      </c>
-      <c r="N5">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.842</v>
+        <v>0.78</v>
       </c>
       <c r="P5">
-        <v>0.846</v>
+        <v>0.649</v>
       </c>
       <c r="Q5">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -687,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0.763</v>
@@ -740,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7">
         <v>0.759</v>
@@ -768,9 +762,6 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M8">
         <v>0.466</v>
       </c>
@@ -795,13 +786,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.825</v>
+      </c>
+      <c r="O9">
+        <v>0.836</v>
       </c>
       <c r="P9">
-        <v>0.671</v>
+        <v>0.864</v>
       </c>
       <c r="Q9">
-        <v>0.578</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -815,22 +815,13 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.825</v>
-      </c>
-      <c r="O10">
-        <v>0.836</v>
+        <v>24</v>
       </c>
       <c r="P10">
-        <v>0.864</v>
+        <v>0.671</v>
       </c>
       <c r="Q10">
-        <v>0.832</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -844,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>0.703</v>
@@ -873,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0.538</v>
@@ -925,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0.597</v>
@@ -957,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0.548</v>
@@ -986,34 +977,46 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>0.606</v>
+        <v>0.727</v>
+      </c>
+      <c r="F16">
+        <v>0.801</v>
       </c>
       <c r="G16">
-        <v>0.623</v>
+        <v>0.722</v>
       </c>
       <c r="H16">
-        <v>0.6919999999999999</v>
+        <v>0.783</v>
       </c>
       <c r="I16">
-        <v>0.783</v>
+        <v>0.844</v>
       </c>
       <c r="J16">
-        <v>0.74</v>
+        <v>0.791</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.786</v>
       </c>
       <c r="L16">
-        <v>0.78</v>
+        <v>0.821</v>
+      </c>
+      <c r="M16">
+        <v>0.826</v>
+      </c>
+      <c r="N16">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.842</v>
       </c>
       <c r="P16">
-        <v>0.649</v>
+        <v>0.846</v>
       </c>
       <c r="Q16">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1029,11 +1032,20 @@
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M17">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.825</v>
+      </c>
+      <c r="O17">
+        <v>0.836</v>
+      </c>
       <c r="P17">
-        <v>0.671</v>
+        <v>0.864</v>
       </c>
       <c r="Q17">
-        <v>0.578</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1044,37 +1056,22 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>0.589</v>
-      </c>
-      <c r="G18">
-        <v>0.734</v>
-      </c>
-      <c r="H18">
-        <v>0.658</v>
-      </c>
-      <c r="I18">
-        <v>0.778</v>
-      </c>
-      <c r="J18">
-        <v>0.667</v>
-      </c>
-      <c r="K18">
-        <v>0.794</v>
-      </c>
-      <c r="L18">
-        <v>0.858</v>
+        <v>0.597</v>
+      </c>
+      <c r="M18">
+        <v>0.569</v>
+      </c>
+      <c r="N18">
+        <v>0.538</v>
+      </c>
+      <c r="O18">
+        <v>0.44</v>
       </c>
       <c r="P18">
-        <v>0.645</v>
-      </c>
-      <c r="Q18">
-        <v>0.764</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1085,37 +1082,37 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>0.631</v>
+        <v>0.589</v>
       </c>
       <c r="G19">
-        <v>0.675</v>
+        <v>0.734</v>
       </c>
       <c r="H19">
-        <v>0.787</v>
+        <v>0.658</v>
       </c>
       <c r="I19">
-        <v>0.89</v>
+        <v>0.778</v>
       </c>
       <c r="J19">
-        <v>0.757</v>
+        <v>0.667</v>
       </c>
       <c r="K19">
-        <v>0.894</v>
+        <v>0.794</v>
       </c>
       <c r="L19">
-        <v>0.89</v>
+        <v>0.858</v>
       </c>
       <c r="P19">
-        <v>0.713</v>
+        <v>0.645</v>
       </c>
       <c r="Q19">
-        <v>0.983</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1123,52 +1120,52 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>0.727</v>
+        <v>0.649</v>
       </c>
       <c r="F20">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="G20">
-        <v>0.722</v>
+        <v>0.737</v>
       </c>
       <c r="H20">
-        <v>0.783</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I20">
-        <v>0.844</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J20">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.792</v>
+      </c>
+      <c r="L20">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.788</v>
+      </c>
+      <c r="N20">
+        <v>0.774</v>
+      </c>
+      <c r="O20">
+        <v>0.737</v>
+      </c>
+      <c r="P20">
         <v>0.791</v>
       </c>
-      <c r="K20">
-        <v>0.786</v>
-      </c>
-      <c r="L20">
-        <v>0.821</v>
-      </c>
-      <c r="M20">
-        <v>0.826</v>
-      </c>
-      <c r="N20">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.842</v>
-      </c>
-      <c r="P20">
-        <v>0.846</v>
-      </c>
       <c r="Q20">
-        <v>0.79</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1179,25 +1176,37 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="N21">
-        <v>0.825</v>
-      </c>
-      <c r="O21">
-        <v>0.836</v>
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0.606</v>
+      </c>
+      <c r="G21">
+        <v>0.623</v>
+      </c>
+      <c r="H21">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.783</v>
+      </c>
+      <c r="J21">
+        <v>0.74</v>
+      </c>
+      <c r="K21">
+        <v>0.775</v>
+      </c>
+      <c r="L21">
+        <v>0.78</v>
       </c>
       <c r="P21">
-        <v>0.864</v>
+        <v>0.649</v>
       </c>
       <c r="Q21">
-        <v>0.832</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1208,25 +1217,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>0.597</v>
-      </c>
-      <c r="M22">
-        <v>0.569</v>
-      </c>
-      <c r="N22">
-        <v>0.538</v>
-      </c>
-      <c r="O22">
-        <v>0.44</v>
+        <v>22</v>
       </c>
       <c r="P22">
-        <v>0.544</v>
+        <v>0.671</v>
+      </c>
+      <c r="Q22">
+        <v>0.578</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1240,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0.589</v>
@@ -1281,46 +1281,34 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.649</v>
-      </c>
-      <c r="F24">
-        <v>0.8</v>
+        <v>0.631</v>
       </c>
       <c r="G24">
-        <v>0.737</v>
+        <v>0.675</v>
       </c>
       <c r="H24">
-        <v>0.6820000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="I24">
-        <v>0.8080000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J24">
-        <v>0.8179999999999999</v>
+        <v>0.757</v>
       </c>
       <c r="K24">
-        <v>0.792</v>
+        <v>0.894</v>
       </c>
       <c r="L24">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="M24">
-        <v>0.788</v>
-      </c>
-      <c r="N24">
-        <v>0.774</v>
-      </c>
-      <c r="O24">
-        <v>0.737</v>
+        <v>0.89</v>
       </c>
       <c r="P24">
-        <v>0.791</v>
+        <v>0.713</v>
       </c>
       <c r="Q24">
-        <v>0.797</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1334,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0.763</v>
@@ -1415,9 +1403,6 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E27">
         <v>0.548</v>
       </c>
@@ -1445,34 +1430,46 @@
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>0.631</v>
+        <v>0.649</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
       </c>
       <c r="G28">
-        <v>0.675</v>
+        <v>0.737</v>
       </c>
       <c r="H28">
-        <v>0.787</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I28">
-        <v>0.89</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J28">
-        <v>0.757</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K28">
-        <v>0.894</v>
+        <v>0.792</v>
       </c>
       <c r="L28">
-        <v>0.89</v>
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.788</v>
+      </c>
+      <c r="N28">
+        <v>0.774</v>
+      </c>
+      <c r="O28">
+        <v>0.737</v>
       </c>
       <c r="P28">
-        <v>0.713</v>
+        <v>0.791</v>
       </c>
       <c r="Q28">
-        <v>0.983</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1486,78 +1483,62 @@
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>0.649</v>
-      </c>
-      <c r="F29">
-        <v>0.8</v>
+        <v>0.631</v>
       </c>
       <c r="G29">
-        <v>0.737</v>
+        <v>0.675</v>
       </c>
       <c r="H29">
-        <v>0.6820000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="I29">
-        <v>0.8080000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J29">
-        <v>0.8179999999999999</v>
+        <v>0.757</v>
       </c>
       <c r="K29">
-        <v>0.792</v>
+        <v>0.894</v>
       </c>
       <c r="L29">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="M29">
-        <v>0.788</v>
-      </c>
-      <c r="N29">
-        <v>0.774</v>
-      </c>
-      <c r="O29">
-        <v>0.737</v>
+        <v>0.89</v>
       </c>
       <c r="P29">
-        <v>0.791</v>
+        <v>0.713</v>
       </c>
       <c r="Q29">
-        <v>0.797</v>
+        <v>0.983</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D22" r:id="rId18"/>
+    <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D25" r:id="rId21"/>
+    <hyperlink ref="D26" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ep/ep/export/flourish/Romania_group_group.xlsx
+++ b/ep/ep/export/flourish/Romania_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>name1</t>
   </si>
@@ -70,7 +70,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
@@ -560,6 +563,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E3">
         <v>0.538</v>
       </c>
@@ -587,7 +593,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.727</v>
@@ -640,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0.606</v>
@@ -681,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0.763</v>
@@ -734,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7">
         <v>0.759</v>
@@ -762,6 +768,9 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M8">
         <v>0.466</v>
       </c>
@@ -786,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9">
         <v>0.8149999999999999</v>
@@ -815,7 +824,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10">
         <v>0.671</v>
@@ -835,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>0.703</v>
@@ -864,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0.538</v>
@@ -919,7 +928,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0.597</v>
@@ -948,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0.548</v>
@@ -977,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0.727</v>
@@ -1058,6 +1067,9 @@
       <c r="C18" t="s">
         <v>18</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E18">
         <v>0.597</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0.589</v>
@@ -1126,7 +1138,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0.649</v>
@@ -1179,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0.606</v>
@@ -1240,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0.589</v>
@@ -1281,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0.631</v>
@@ -1322,7 +1334,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0.763</v>
@@ -1403,6 +1415,9 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E27">
         <v>0.548</v>
       </c>
@@ -1430,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0.649</v>
@@ -1483,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0.631</v>
@@ -1516,29 +1531,33 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D22" r:id="rId18"/>
-    <hyperlink ref="D23" r:id="rId19"/>
-    <hyperlink ref="D24" r:id="rId20"/>
-    <hyperlink ref="D25" r:id="rId21"/>
-    <hyperlink ref="D26" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
